--- a/BackTest/2019-10-28 BackTest DAC.xlsx
+++ b/BackTest/2019-10-28 BackTest DAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -946,14 +946,10 @@
         <v>267.6149999999907</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -986,55 +982,47 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K18" t="inlineStr">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="F19" t="n">
+        <v>65577.577</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-272850.4584</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="E19" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="F19" t="n">
-        <v>65577.577</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-272850.4584</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1068,9 +1056,7 @@
       <c r="I20" t="n">
         <v>3.21</v>
       </c>
-      <c r="J20" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1109,9 +1095,7 @@
       <c r="I21" t="n">
         <v>3.24</v>
       </c>
-      <c r="J21" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1150,9 +1134,7 @@
       <c r="I22" t="n">
         <v>3.22</v>
       </c>
-      <c r="J22" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1186,14 +1168,10 @@
         <v>-237102.9172000001</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1232,9 +1210,7 @@
       <c r="I24" t="n">
         <v>3.22</v>
       </c>
-      <c r="J24" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1273,9 +1249,7 @@
       <c r="I25" t="n">
         <v>3.24</v>
       </c>
-      <c r="J25" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1309,14 +1283,10 @@
         <v>-77907.50420000008</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1350,14 +1320,10 @@
         <v>-77907.50420000008</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1391,14 +1357,10 @@
         <v>-77907.50420000008</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1432,14 +1394,10 @@
         <v>-337920.3492000001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1473,14 +1431,10 @@
         <v>-23396.07820000005</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1514,14 +1468,10 @@
         <v>-23396.07820000005</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1555,14 +1505,10 @@
         <v>-23396.07820000005</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1596,14 +1542,10 @@
         <v>-23396.07820000005</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1637,14 +1579,10 @@
         <v>-465806.4232</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1678,14 +1616,10 @@
         <v>-153525.6912</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1719,14 +1653,10 @@
         <v>136940.7178</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1760,14 +1690,10 @@
         <v>-127036.7162</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1801,14 +1727,10 @@
         <v>173204.3058</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1842,14 +1764,10 @@
         <v>173204.3058</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1883,14 +1801,10 @@
         <v>173204.3058</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1924,14 +1838,10 @@
         <v>173204.3058</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1968,9 +1878,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2004,14 +1912,10 @@
         <v>-391748.0882</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2045,14 +1949,10 @@
         <v>-107337.5232</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2086,14 +1986,10 @@
         <v>-352202.3282</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2127,14 +2023,10 @@
         <v>-92408.90919999999</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2168,14 +2060,10 @@
         <v>209740.2548</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2212,9 +2100,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2251,9 +2137,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2290,9 +2174,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2329,9 +2211,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2368,9 +2248,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2407,9 +2285,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2446,9 +2322,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2485,9 +2359,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2524,9 +2396,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2563,9 +2433,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2602,9 +2470,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2641,9 +2507,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2680,9 +2544,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2719,9 +2581,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2758,9 +2618,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2797,9 +2655,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2836,9 +2692,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2875,9 +2729,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2914,9 +2766,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2953,9 +2803,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2992,9 +2840,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3031,9 +2877,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3070,9 +2914,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3109,9 +2951,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3148,9 +2988,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3187,9 +3025,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3226,9 +3062,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3265,9 +3099,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3304,9 +3136,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3343,9 +3173,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3382,9 +3210,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3421,9 +3247,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3460,9 +3284,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3499,9 +3321,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3538,9 +3358,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3577,9 +3395,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3616,9 +3432,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3655,9 +3469,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3694,9 +3506,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3733,9 +3543,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3772,9 +3580,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3811,9 +3617,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3850,9 +3654,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3889,9 +3691,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3928,9 +3728,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3967,9 +3765,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4006,9 +3802,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4045,9 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4084,9 +3876,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4123,9 +3913,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4162,9 +3950,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4201,9 +3987,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4240,9 +4024,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4279,9 +4061,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4318,9 +4098,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4357,9 +4135,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4396,9 +4172,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4435,9 +4209,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4474,9 +4246,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4513,9 +4283,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4552,9 +4320,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4591,9 +4357,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4630,9 +4394,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4669,9 +4431,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4708,9 +4468,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4744,12 +4502,12 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>3.24</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4786,9 +4544,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4825,9 +4581,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4864,9 +4618,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4900,12 +4652,12 @@
         <v>-245531.6624999999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>3.24</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4939,12 +4691,12 @@
         <v>-245531.6624999999</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>3.24</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4978,12 +4730,12 @@
         <v>-250940.7095999999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>3.24</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5017,12 +4769,12 @@
         <v>36286.36240000004</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>3.24</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5059,9 +4811,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5098,9 +4848,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5137,9 +4885,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5176,9 +4922,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5215,9 +4959,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5254,9 +4996,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5293,9 +5033,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5332,9 +5070,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5371,9 +5107,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5410,9 +5144,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5449,9 +5181,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5488,9 +5218,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5527,9 +5255,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5566,9 +5292,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5605,9 +5329,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5644,9 +5366,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5683,9 +5403,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5722,9 +5440,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5761,9 +5477,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5800,9 +5514,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5839,9 +5551,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5878,9 +5588,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5917,9 +5625,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5956,9 +5662,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5995,9 +5699,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6034,9 +5736,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6073,9 +5773,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6112,9 +5810,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6151,9 +5847,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6190,9 +5884,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6229,9 +5921,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6265,20 +5955,16 @@
         <v>588358.0136000002</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
@@ -6307,14 +5993,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6343,17 +6023,11 @@
         <v>583732.4113000002</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6385,14 +6059,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6421,17 +6089,11 @@
         <v>819483.9843000001</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6460,17 +6122,11 @@
         <v>1105458.2363</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6499,17 +6155,11 @@
         <v>841114.0943</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6541,14 +6191,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6577,17 +6221,11 @@
         <v>858723.6073</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6616,17 +6254,11 @@
         <v>1141833.1343</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6655,17 +6287,11 @@
         <v>857310.4033</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6694,17 +6320,11 @@
         <v>857310.4033</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6733,17 +6353,11 @@
         <v>857310.4033</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6772,17 +6386,11 @@
         <v>857310.4033</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6811,17 +6419,11 @@
         <v>857310.4033</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6850,17 +6452,11 @@
         <v>1255494.7163</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6889,17 +6485,11 @@
         <v>914024.2193</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6928,17 +6518,11 @@
         <v>914024.2193</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6967,17 +6551,11 @@
         <v>1214430.5343</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7006,17 +6584,11 @@
         <v>973072.7392999999</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7045,17 +6617,11 @@
         <v>973072.7392999999</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7084,17 +6650,11 @@
         <v>1222849.0605</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7123,17 +6683,11 @@
         <v>1222849.0605</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7162,17 +6716,11 @@
         <v>1222849.0605</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7201,17 +6749,11 @@
         <v>1222849.0605</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7243,14 +6785,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7282,14 +6818,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7321,14 +6851,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7360,14 +6884,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7399,14 +6917,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7438,14 +6950,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7477,14 +6983,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7516,14 +7016,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7555,14 +7049,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7594,14 +7082,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7633,14 +7115,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7672,14 +7148,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7711,14 +7181,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7750,14 +7214,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7789,14 +7247,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7828,14 +7280,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7867,14 +7313,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7906,14 +7346,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7945,14 +7379,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7984,14 +7412,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8023,14 +7445,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8062,14 +7478,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8101,14 +7511,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8140,14 +7544,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8179,14 +7577,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8218,14 +7610,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8257,14 +7643,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8296,14 +7676,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8335,14 +7709,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8374,14 +7742,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8413,14 +7775,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8452,14 +7808,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8491,14 +7841,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8530,14 +7874,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8569,14 +7907,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8608,14 +7940,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8647,14 +7973,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8686,14 +8006,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8725,14 +8039,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8764,14 +8072,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8803,14 +8105,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8842,14 +8138,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8881,14 +8171,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8920,14 +8204,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8959,14 +8237,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8998,14 +8270,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9037,14 +8303,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9076,14 +8336,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9115,14 +8369,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9154,14 +8402,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9193,14 +8435,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9232,14 +8468,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9271,14 +8501,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9310,14 +8534,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9349,14 +8567,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9388,14 +8600,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9427,14 +8633,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9466,14 +8666,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9505,14 +8699,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9544,14 +8732,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9583,14 +8765,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9622,14 +8798,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9661,14 +8831,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9700,14 +8864,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9739,14 +8897,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9778,14 +8930,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9817,14 +8963,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9856,14 +8996,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9895,14 +9029,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9934,14 +9062,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9973,14 +9095,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10012,14 +9128,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10051,14 +9161,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10090,14 +9194,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10129,14 +9227,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10168,14 +9260,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10207,14 +9293,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10246,14 +9326,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10285,14 +9359,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10324,14 +9392,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10363,14 +9425,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10402,14 +9458,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10441,14 +9491,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10480,14 +9524,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10519,14 +9557,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10558,14 +9590,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10597,14 +9623,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10636,14 +9656,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10675,14 +9689,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10714,14 +9722,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10753,14 +9755,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10792,14 +9788,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10831,14 +9821,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10870,14 +9854,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10909,14 +9887,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10948,14 +9920,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10987,14 +9953,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11026,14 +9986,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11065,14 +10019,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11104,14 +10052,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11143,14 +10085,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11182,14 +10118,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11221,14 +10151,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11260,14 +10184,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11299,14 +10217,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11338,14 +10250,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11377,14 +10283,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11416,14 +10316,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11455,14 +10349,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11494,14 +10382,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11533,14 +10415,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11572,14 +10448,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11611,14 +10481,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11650,14 +10514,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11689,14 +10547,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11728,14 +10580,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11767,14 +10613,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11806,14 +10646,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11845,14 +10679,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11884,14 +10712,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11923,14 +10745,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11962,14 +10778,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12001,14 +10811,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12040,14 +10844,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12079,14 +10877,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12118,14 +10910,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12157,14 +10943,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12196,14 +10976,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12235,14 +11009,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12274,14 +11042,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12313,14 +11075,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12352,14 +11108,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12391,14 +11141,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12430,14 +11174,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12469,14 +11207,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12508,14 +11240,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12547,14 +11273,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12586,14 +11306,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12625,14 +11339,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12664,14 +11372,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12703,14 +11405,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12742,14 +11438,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12781,14 +11471,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12820,14 +11504,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12859,14 +11537,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12898,14 +11570,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12937,14 +11603,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12976,14 +11636,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13015,14 +11669,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13054,14 +11702,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13093,14 +11735,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13132,14 +11768,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13171,14 +11801,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13210,14 +11834,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13249,14 +11867,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13288,14 +11900,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13327,14 +11933,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13366,14 +11966,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13405,14 +11999,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13444,14 +12032,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13483,14 +12065,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13522,14 +12098,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13561,14 +12131,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13600,14 +12164,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13639,14 +12197,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13678,14 +12230,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13717,14 +12263,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13756,14 +12296,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13795,14 +12329,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13834,14 +12362,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13873,14 +12395,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13912,14 +12428,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13951,14 +12461,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13990,14 +12494,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14029,14 +12527,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14068,14 +12560,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14107,14 +12593,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14146,14 +12626,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14185,14 +12659,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14224,14 +12692,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14263,14 +12725,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14302,14 +12758,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14341,14 +12791,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14380,14 +12824,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14419,14 +12857,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14458,14 +12890,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14497,14 +12923,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14536,14 +12956,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14575,14 +12989,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14614,14 +13022,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14653,14 +13055,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14692,14 +13088,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14731,14 +13121,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14770,14 +13154,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14809,14 +13187,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14848,14 +13220,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14887,14 +13253,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14926,14 +13286,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14965,14 +13319,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15004,14 +13352,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15043,14 +13385,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15082,14 +13418,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15121,14 +13451,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15160,14 +13484,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15199,14 +13517,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15238,14 +13550,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15277,14 +13583,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15316,14 +13616,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15355,14 +13649,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15394,14 +13682,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15433,14 +13715,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15472,14 +13748,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15511,14 +13781,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15550,14 +13814,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15589,14 +13847,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15628,14 +13880,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15667,14 +13913,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15706,14 +13946,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15745,14 +13979,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15784,14 +14012,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15823,14 +14045,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15862,14 +14078,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15901,14 +14111,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15940,14 +14144,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15979,14 +14177,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -16018,14 +14210,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -16057,14 +14243,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -16096,14 +14276,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -16135,14 +14309,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -16174,14 +14342,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16213,14 +14375,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16252,14 +14408,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16291,14 +14441,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16330,14 +14474,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16369,14 +14507,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16408,14 +14540,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16444,17 +14570,11 @@
         <v>923511.9047000003</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16486,14 +14606,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16525,14 +14639,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16564,14 +14672,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16603,14 +14705,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16642,14 +14738,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16681,14 +14771,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16717,17 +14801,11 @@
         <v>1859024.6827</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16759,14 +14837,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16795,17 +14867,11 @@
         <v>1509729.8497</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16837,14 +14903,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16873,17 +14933,11 @@
         <v>1781533.2857</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16915,14 +14969,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16951,17 +14999,11 @@
         <v>1781533.2857</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16990,17 +15032,11 @@
         <v>1781533.2857</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -17032,14 +15068,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -17071,14 +15101,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -17110,14 +15134,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -17149,14 +15167,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -17188,14 +15200,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -17227,14 +15233,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17266,14 +15266,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -17305,14 +15299,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17344,14 +15332,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17383,14 +15365,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17422,14 +15398,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17461,14 +15431,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17500,14 +15464,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17539,14 +15497,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17578,14 +15530,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17617,14 +15563,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17656,14 +15596,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17695,14 +15629,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17734,14 +15662,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17773,14 +15695,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17812,14 +15728,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17851,14 +15761,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17890,14 +15794,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17929,14 +15827,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17968,14 +15860,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -18007,14 +15893,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -18046,14 +15926,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -18085,14 +15959,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -18124,14 +15992,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -18163,14 +16025,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -18202,14 +16058,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -18241,14 +16091,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -18280,14 +16124,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -18319,14 +16157,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -18358,14 +16190,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -18397,14 +16223,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18436,14 +16256,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18475,14 +16289,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18514,14 +16322,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18553,14 +16355,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18592,14 +16388,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18631,14 +16421,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18670,14 +16454,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18709,14 +16487,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18748,14 +16520,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18787,14 +16553,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18823,19 +16583,13 @@
         <v>2856686.972600874</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
-        <v>1.044382716049383</v>
+        <v>1</v>
       </c>
       <c r="M474" t="inlineStr"/>
     </row>
@@ -18862,7 +16616,7 @@
         <v>2856686.972600874</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -18895,7 +16649,7 @@
         <v>2973861.541600875</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -18928,7 +16682,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -18961,7 +16715,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -18994,7 +16748,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -19027,7 +16781,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -19060,7 +16814,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -19093,7 +16847,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -19126,7 +16880,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -19159,7 +16913,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -19192,7 +16946,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -19225,7 +16979,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -19258,7 +17012,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -19291,7 +17045,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -19324,7 +17078,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -19357,7 +17111,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -19390,7 +17144,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -19456,7 +17210,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -19489,7 +17243,7 @@
         <v>2723890.185200875</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -19522,7 +17276,7 @@
         <v>2723890.185200875</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -19555,7 +17309,7 @@
         <v>2726230.524100875</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -19588,7 +17342,7 @@
         <v>2591716.455300875</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19621,7 +17375,7 @@
         <v>2591716.455300875</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19654,7 +17408,7 @@
         <v>2883867.833300875</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19687,7 +17441,7 @@
         <v>2883867.833300875</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19720,7 +17474,7 @@
         <v>2883867.833300875</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19753,7 +17507,7 @@
         <v>2884801.656800875</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19786,7 +17540,7 @@
         <v>2694368.604700875</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -19918,7 +17672,7 @@
         <v>3018103.306700875</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -20248,7 +18002,7 @@
         <v>2564412.161123097</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -20314,7 +18068,7 @@
         <v>2564412.161123097</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -20347,7 +18101,7 @@
         <v>2564412.161123097</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -20380,7 +18134,7 @@
         <v>2388888.920123097</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -20446,7 +18200,7 @@
         <v>2712837.251123097</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -20578,7 +18332,7 @@
         <v>2712837.251123097</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -20611,7 +18365,7 @@
         <v>2954608.347823097</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -20644,7 +18398,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20677,7 +18431,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20710,7 +18464,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -20743,7 +18497,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20776,7 +18530,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -20809,7 +18563,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20842,7 +18596,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20875,7 +18629,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20908,7 +18662,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20941,7 +18695,7 @@
         <v>2471722.300823097</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20974,7 +18728,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -21007,7 +18761,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -21040,7 +18794,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -21073,7 +18827,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -21106,7 +18860,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -21139,7 +18893,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -21172,7 +18926,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -21205,7 +18959,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -21238,7 +18992,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -21271,7 +19025,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -21304,7 +19058,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -21337,7 +19091,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -21370,7 +19124,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -21403,7 +19157,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -21436,7 +19190,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -21469,7 +19223,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -21502,7 +19256,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -21535,7 +19289,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -21568,7 +19322,7 @@
         <v>2745081.721823097</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -21601,7 +19355,7 @@
         <v>2958418.002823097</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -21898,7 +19652,7 @@
         <v>2800699.880423097</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -21931,7 +19685,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -21964,7 +19718,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -21997,7 +19751,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -22030,7 +19784,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -22162,7 +19916,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -22195,7 +19949,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -22228,7 +19982,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -22261,7 +20015,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -22294,7 +20048,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -22327,7 +20081,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -22360,7 +20114,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -22393,7 +20147,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -22426,7 +20180,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -22459,7 +20213,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -22492,7 +20246,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -22525,7 +20279,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -22558,7 +20312,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -22591,7 +20345,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -22624,7 +20378,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22822,7 +20576,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -22855,7 +20609,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -22888,7 +20642,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -22921,7 +20675,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -22954,7 +20708,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -22987,7 +20741,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -23020,7 +20774,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -23053,7 +20807,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -23086,7 +20840,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -23119,7 +20873,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -23152,7 +20906,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -23185,7 +20939,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -23218,7 +20972,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -23251,7 +21005,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -23284,7 +21038,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -23317,7 +21071,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -23383,7 +21137,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -23416,7 +21170,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -23449,7 +21203,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -23482,7 +21236,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -23515,7 +21269,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -23548,7 +21302,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -23581,7 +21335,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -23614,7 +21368,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -23647,7 +21401,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -23680,7 +21434,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -23713,7 +21467,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -23746,7 +21500,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -23779,7 +21533,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -23812,7 +21566,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -23845,7 +21599,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -23878,7 +21632,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -23911,7 +21665,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -23944,7 +21698,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -23977,7 +21731,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -24010,7 +21764,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -24043,7 +21797,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -24076,7 +21830,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -24109,7 +21863,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -24208,7 +21962,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -24241,7 +21995,7 @@
         <v>2974461.318423097</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -24274,7 +22028,7 @@
         <v>2974461.318423097</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -24307,7 +22061,7 @@
         <v>3235528.955423098</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -24340,7 +22094,7 @@
         <v>3235528.955423098</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -24373,7 +22127,7 @@
         <v>2933146.547423098</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -24439,7 +22193,7 @@
         <v>3244027.280423098</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -24472,7 +22226,7 @@
         <v>3113832.486423098</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -24538,7 +22292,7 @@
         <v>3620661.866423097</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -24571,7 +22325,7 @@
         <v>3620661.866423097</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -24604,7 +22358,7 @@
         <v>3506609.934423097</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -24637,7 +22391,7 @@
         <v>3925743.237423097</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -24670,7 +22424,7 @@
         <v>3807258.331423097</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -24703,7 +22457,7 @@
         <v>4153839.417923097</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -24736,7 +22490,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -24769,7 +22523,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -24802,7 +22556,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -24835,7 +22589,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -24868,7 +22622,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -24901,7 +22655,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -24934,7 +22688,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -24967,7 +22721,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -25000,7 +22754,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -25033,7 +22787,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -25066,7 +22820,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -25132,7 +22886,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -25165,7 +22919,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -25198,7 +22952,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -25231,7 +22985,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -25264,7 +23018,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -25297,7 +23051,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -25330,7 +23084,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -25363,7 +23117,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -25396,7 +23150,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -25429,7 +23183,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -25462,7 +23216,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -25495,7 +23249,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -25528,7 +23282,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -25561,7 +23315,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -25594,7 +23348,7 @@
         <v>3935007.824923098</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -25627,7 +23381,7 @@
         <v>4214541.143700875</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -25660,7 +23414,7 @@
         <v>4214541.143700875</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -25693,7 +23447,7 @@
         <v>4214541.143700875</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -25726,7 +23480,7 @@
         <v>4214541.143700875</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -25924,7 +23678,7 @@
         <v>3799035.639700876</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -25957,7 +23711,7 @@
         <v>3578664.856700876</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -25990,7 +23744,7 @@
         <v>4078647.614700876</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -26023,7 +23777,7 @@
         <v>4078647.614700876</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -26056,7 +23810,7 @@
         <v>3772597.280700876</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -26089,7 +23843,7 @@
         <v>3407964.178700876</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -26122,7 +23876,7 @@
         <v>3558192.081700876</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -26155,7 +23909,7 @@
         <v>2912752.640700876</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -26188,7 +23942,7 @@
         <v>2643922.464700876</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -26221,7 +23975,7 @@
         <v>2923532.351700876</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -26254,7 +24008,7 @@
         <v>2683412.511700876</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -26287,7 +24041,7 @@
         <v>2852156.123700876</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -26320,7 +24074,7 @@
         <v>2568168.965700876</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -26353,7 +24107,7 @@
         <v>2835755.392700877</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -26386,7 +24140,7 @@
         <v>2530315.484700877</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -26419,7 +24173,7 @@
         <v>2824685.483700877</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -26749,7 +24503,7 @@
         <v>2435475.125500876</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -26782,7 +24536,7 @@
         <v>2435475.125500876</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -26815,7 +24569,7 @@
         <v>2435475.125500876</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -26848,7 +24602,7 @@
         <v>1888136.124500876</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -26881,7 +24635,7 @@
         <v>2361164.700900876</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -26914,7 +24668,7 @@
         <v>2239647.530500876</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -26947,7 +24701,7 @@
         <v>2252261.327600876</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -26980,7 +24734,7 @@
         <v>1908283.376300876</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -27013,7 +24767,7 @@
         <v>1998708.940000876</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -27046,7 +24800,7 @@
         <v>2694467.108900876</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -27079,7 +24833,7 @@
         <v>2694467.108900876</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -27112,7 +24866,7 @@
         <v>2694467.108900876</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -27618,6 +25372,6 @@
       <c r="M740" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest DAC.xlsx
+++ b/BackTest/2019-10-28 BackTest DAC.xlsx
@@ -1168,9 +1168,11 @@
         <v>-237102.9172000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1283,9 +1285,11 @@
         <v>-77907.50420000008</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1320,9 +1324,11 @@
         <v>-77907.50420000008</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -1357,9 +1363,11 @@
         <v>-77907.50420000008</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1394,9 +1402,11 @@
         <v>-337920.3492000001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1431,9 +1441,11 @@
         <v>-23396.07820000005</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.22</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1468,9 +1480,11 @@
         <v>-23396.07820000005</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.23</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1505,9 +1519,11 @@
         <v>-23396.07820000005</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.23</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1579,9 +1595,11 @@
         <v>-465806.4232</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3.23</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1727,9 +1745,11 @@
         <v>173204.3058</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.22</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1949,9 +1969,11 @@
         <v>-107337.5232</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3.22</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2356,9 +2378,11 @@
         <v>19021.7726</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3.23</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2393,9 +2417,11 @@
         <v>-233057.0934</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2430,9 +2456,11 @@
         <v>31680.28959999996</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3.22</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2467,9 +2495,11 @@
         <v>286575.5166</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3.23</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2541,9 +2571,11 @@
         <v>109786.7436</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3.23</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2578,9 +2610,11 @@
         <v>-383246.7994</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3.25</v>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2837,9 +2871,11 @@
         <v>-237507.2786</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -2874,9 +2910,11 @@
         <v>-237507.2786</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -2911,9 +2949,11 @@
         <v>-237507.2786</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -2948,9 +2988,11 @@
         <v>-237507.2786</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -2985,9 +3027,11 @@
         <v>-237507.2786</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -3059,9 +3103,11 @@
         <v>-237507.2786</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3096,9 +3142,11 @@
         <v>-237507.2786</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3133,9 +3181,11 @@
         <v>-237507.2786</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3170,9 +3220,11 @@
         <v>-237507.2786</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3207,9 +3259,11 @@
         <v>-237507.2786</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3244,9 +3298,11 @@
         <v>-418313.3139</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3281,9 +3337,11 @@
         <v>-414131.7671999999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>3.22</v>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3318,9 +3376,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3.23</v>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3355,9 +3415,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3392,9 +3454,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3429,9 +3493,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3466,9 +3532,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3503,9 +3571,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3540,9 +3610,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3577,9 +3649,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -3614,9 +3688,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -3651,9 +3727,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3688,9 +3766,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -3725,9 +3805,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -3762,9 +3844,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -3799,9 +3883,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -3836,9 +3922,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -3873,9 +3961,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -3910,9 +4000,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -3947,9 +4039,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -3984,9 +4078,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -4021,9 +4117,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -4058,9 +4156,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -4095,9 +4195,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -4132,9 +4234,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -4169,9 +4273,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -4206,9 +4312,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -4243,9 +4351,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4280,9 +4390,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4317,9 +4429,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4354,9 +4468,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -4391,9 +4507,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4428,9 +4546,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4465,9 +4585,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -4615,9 +4737,11 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -4808,9 +4932,11 @@
         <v>36286.36240000004</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>3.25</v>
+      </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -4845,9 +4971,11 @@
         <v>36286.36240000004</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>3.25</v>
+      </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -4882,9 +5010,11 @@
         <v>36286.36240000004</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>3.25</v>
+      </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -4919,9 +5049,11 @@
         <v>290197.0985000001</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>3.25</v>
+      </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -4956,9 +5088,11 @@
         <v>290197.0985000001</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>3.26</v>
+      </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -4993,9 +5127,11 @@
         <v>290197.0985000001</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>3.26</v>
+      </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -5067,9 +5203,11 @@
         <v>288392.0577000001</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>3.26</v>
+      </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -5104,9 +5242,11 @@
         <v>288392.0577000001</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>3.25</v>
+      </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -5141,9 +5281,11 @@
         <v>829251.9743000001</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>3.25</v>
+      </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -5955,16 +6097,18 @@
         <v>588358.0136000002</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L152" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
       <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
@@ -5994,7 +6138,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6023,11 +6171,15 @@
         <v>583732.4113000002</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6060,7 +6212,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6089,11 +6245,15 @@
         <v>819483.9843000001</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6122,11 +6282,15 @@
         <v>1105458.2363</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6155,11 +6319,15 @@
         <v>841114.0943</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6192,7 +6360,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6221,11 +6393,15 @@
         <v>858723.6073</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6254,11 +6430,15 @@
         <v>1141833.1343</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6287,11 +6467,15 @@
         <v>857310.4033</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6320,11 +6504,15 @@
         <v>857310.4033</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6353,11 +6541,15 @@
         <v>857310.4033</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6386,11 +6578,15 @@
         <v>857310.4033</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6419,11 +6615,15 @@
         <v>857310.4033</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6452,11 +6652,15 @@
         <v>1255494.7163</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6485,11 +6689,15 @@
         <v>914024.2193</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6518,11 +6726,15 @@
         <v>914024.2193</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6551,11 +6763,15 @@
         <v>1214430.5343</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6584,11 +6800,15 @@
         <v>973072.7392999999</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6617,11 +6837,15 @@
         <v>973072.7392999999</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6650,11 +6874,15 @@
         <v>1222849.0605</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6683,11 +6911,15 @@
         <v>1222849.0605</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6716,11 +6948,15 @@
         <v>1222849.0605</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6749,11 +6985,15 @@
         <v>1222849.0605</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6786,7 +7026,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6819,7 +7063,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6852,7 +7100,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6885,7 +7137,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6918,7 +7174,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6951,7 +7211,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6984,7 +7248,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7017,7 +7285,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7050,7 +7322,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7083,7 +7359,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7116,7 +7396,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7149,7 +7433,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7182,7 +7470,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7215,7 +7507,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7248,7 +7544,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7281,7 +7581,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7314,7 +7618,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7347,7 +7655,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7380,7 +7692,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7413,7 +7729,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7446,7 +7766,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7479,7 +7803,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7512,7 +7840,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7545,7 +7877,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7578,7 +7914,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7611,7 +7951,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7644,7 +7988,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7677,7 +8025,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7710,7 +8062,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7743,7 +8099,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7776,7 +8136,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7809,7 +8173,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7842,7 +8210,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7875,7 +8247,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7908,7 +8284,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7941,7 +8321,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7974,7 +8358,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8007,7 +8395,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8040,7 +8432,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8073,7 +8469,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8106,7 +8506,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8139,7 +8543,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8172,7 +8580,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8205,7 +8617,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8238,7 +8654,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8271,7 +8691,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8304,7 +8728,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8337,7 +8765,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8370,7 +8802,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8403,7 +8839,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8436,7 +8876,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8469,7 +8913,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8502,7 +8950,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8535,7 +8987,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8568,7 +9024,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8601,7 +9061,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8634,7 +9098,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8667,7 +9135,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8700,7 +9172,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8733,7 +9209,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8766,7 +9246,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8799,7 +9283,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8832,7 +9320,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8865,7 +9357,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8898,7 +9394,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8931,7 +9431,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8964,7 +9468,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8997,7 +9505,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9030,7 +9542,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9063,7 +9579,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9096,7 +9616,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9129,7 +9653,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9162,7 +9690,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9195,7 +9727,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9228,7 +9764,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9261,7 +9801,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9294,7 +9838,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9327,7 +9875,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9360,7 +9912,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9393,7 +9949,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9426,7 +9986,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9459,7 +10023,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9492,7 +10060,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9525,7 +10097,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9558,7 +10134,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9591,7 +10171,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9624,7 +10208,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9657,7 +10245,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9690,7 +10282,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9723,7 +10319,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9756,7 +10356,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9789,7 +10393,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9822,7 +10430,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9855,7 +10467,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9888,7 +10504,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9921,7 +10541,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9954,7 +10578,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9987,7 +10615,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10020,7 +10652,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10053,7 +10689,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10086,7 +10726,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10119,7 +10763,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10152,7 +10800,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10185,7 +10837,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10218,7 +10874,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10251,7 +10911,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10284,7 +10948,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10317,7 +10985,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10350,7 +11022,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10383,7 +11059,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10416,7 +11096,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10449,7 +11133,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10482,7 +11170,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10515,7 +11207,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10548,7 +11244,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10581,7 +11281,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10614,7 +11318,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10647,7 +11355,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10680,7 +11392,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10713,7 +11429,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10746,7 +11466,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10779,7 +11503,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10812,7 +11540,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10845,7 +11577,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10878,7 +11614,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10911,7 +11651,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10944,7 +11688,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10977,7 +11725,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11010,7 +11762,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11043,7 +11799,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11076,7 +11836,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11109,7 +11873,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11142,7 +11910,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11175,7 +11947,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11208,7 +11984,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11241,7 +12021,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11274,7 +12058,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11307,7 +12095,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11340,7 +12132,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11373,7 +12169,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11406,7 +12206,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11439,7 +12243,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11472,7 +12280,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11505,7 +12317,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11538,7 +12354,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11571,7 +12391,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11604,7 +12428,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11637,7 +12465,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11670,7 +12502,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11703,7 +12539,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11736,7 +12576,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11769,7 +12613,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11802,7 +12650,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11835,7 +12687,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11868,7 +12724,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11901,7 +12761,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11934,7 +12798,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11967,7 +12835,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12000,7 +12872,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12033,7 +12909,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12066,7 +12946,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12099,7 +12983,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12132,7 +13020,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12165,7 +13057,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12198,7 +13094,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12231,7 +13131,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12264,7 +13168,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12297,7 +13205,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12330,7 +13242,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12363,7 +13279,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12396,7 +13316,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12429,7 +13353,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12462,7 +13390,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12495,7 +13427,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12528,7 +13464,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12561,7 +13501,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12594,7 +13538,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12627,7 +13575,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12660,7 +13612,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12693,7 +13649,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12726,7 +13686,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12759,7 +13723,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12792,7 +13760,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12825,7 +13797,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12858,7 +13834,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12891,7 +13871,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12924,7 +13908,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12957,7 +13945,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12990,7 +13982,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13023,7 +14019,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13056,7 +14056,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13089,7 +14093,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13122,7 +14130,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13155,7 +14167,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13188,7 +14204,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13221,7 +14241,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13254,7 +14278,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13287,7 +14315,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13320,7 +14352,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13353,7 +14389,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13386,7 +14426,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13419,7 +14463,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13452,7 +14500,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13485,7 +14537,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13518,7 +14574,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13551,7 +14611,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13584,7 +14648,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13617,7 +14685,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13650,7 +14722,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13683,7 +14759,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13716,7 +14796,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13749,7 +14833,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13782,7 +14870,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13815,7 +14907,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13848,7 +14944,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13881,7 +14981,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13914,7 +15018,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13947,7 +15055,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13980,7 +15092,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14013,7 +15129,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14046,7 +15166,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14079,7 +15203,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14112,7 +15240,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14145,7 +15277,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14178,7 +15314,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14211,7 +15351,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14244,7 +15388,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14277,7 +15425,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14310,7 +15462,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14343,7 +15499,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14376,7 +15536,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14409,7 +15573,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14442,7 +15610,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14475,7 +15647,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14508,7 +15684,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14541,7 +15721,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14570,11 +15754,15 @@
         <v>923511.9047000003</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14607,7 +15795,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14640,7 +15832,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14673,7 +15869,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14706,7 +15906,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14739,7 +15943,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14772,7 +15980,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14801,11 +16013,15 @@
         <v>1859024.6827</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14838,7 +16054,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14867,11 +16087,15 @@
         <v>1509729.8497</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14904,7 +16128,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14933,11 +16161,15 @@
         <v>1781533.2857</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14970,7 +16202,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14999,11 +16235,15 @@
         <v>1781533.2857</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15032,11 +16272,15 @@
         <v>1781533.2857</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15069,7 +16313,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15102,7 +16350,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15135,7 +16387,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15168,7 +16424,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15201,7 +16461,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15234,7 +16498,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15267,7 +16535,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15300,7 +16572,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15333,7 +16609,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15366,7 +16646,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15399,7 +16683,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15432,7 +16720,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15465,7 +16757,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15498,7 +16794,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15531,7 +16831,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15564,7 +16868,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15597,7 +16905,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15630,7 +16942,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15663,7 +16979,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15696,7 +17016,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15729,7 +17053,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15762,7 +17090,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15795,7 +17127,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15828,7 +17164,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15861,7 +17201,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15894,7 +17238,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15927,7 +17275,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15960,7 +17312,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15993,7 +17349,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16026,7 +17386,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16055,14 +17419,16 @@
         <v>2550863.350900875</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
-      <c r="L458" t="n">
-        <v>1</v>
-      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L458" t="inlineStr"/>
       <c r="M458" t="inlineStr"/>
     </row>
     <row r="459">
@@ -16319,7 +17685,7 @@
         <v>2975776.360600875</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16352,7 +17718,7 @@
         <v>3260617.052600875</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16385,7 +17751,7 @@
         <v>3260617.052600875</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16418,7 +17784,7 @@
         <v>2990663.395600874</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16451,7 +17817,7 @@
         <v>2990663.395600874</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16484,7 +17850,7 @@
         <v>3120805.856600875</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16550,7 +17916,7 @@
         <v>2856686.972600874</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16583,7 +17949,7 @@
         <v>2856686.972600874</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16616,7 +17982,7 @@
         <v>2856686.972600874</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16649,7 +18015,7 @@
         <v>2973861.541600875</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16682,7 +18048,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16715,7 +18081,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16748,7 +18114,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16946,7 +18312,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16979,7 +18345,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17012,7 +18378,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17045,7 +18411,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17078,7 +18444,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17177,7 +18543,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17210,7 +18576,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17243,7 +18609,7 @@
         <v>2723890.185200875</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17309,7 +18675,7 @@
         <v>2726230.524100875</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17342,7 +18708,7 @@
         <v>2591716.455300875</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17375,7 +18741,7 @@
         <v>2591716.455300875</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17474,7 +18840,7 @@
         <v>2883867.833300875</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17507,7 +18873,7 @@
         <v>2884801.656800875</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17540,7 +18906,7 @@
         <v>2694368.604700875</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17573,7 +18939,7 @@
         <v>3018103.306700875</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17606,7 +18972,7 @@
         <v>3018103.306700875</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17672,7 +19038,7 @@
         <v>3018103.306700875</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17738,7 +19104,7 @@
         <v>3018103.306700875</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17804,7 +19170,7 @@
         <v>3018103.306700875</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17903,7 +19269,7 @@
         <v>2812624.253123097</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17936,7 +19302,7 @@
         <v>2564412.161123097</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17969,7 +19335,7 @@
         <v>2564412.161123097</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18002,7 +19368,7 @@
         <v>2564412.161123097</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18233,7 +19599,7 @@
         <v>2712837.251123097</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18266,7 +19632,7 @@
         <v>2712837.251123097</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18299,7 +19665,7 @@
         <v>2712837.251123097</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18332,7 +19698,7 @@
         <v>2712837.251123097</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18431,7 +19797,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18464,7 +19830,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18497,7 +19863,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18530,7 +19896,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18563,7 +19929,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18596,7 +19962,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18629,7 +19995,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18662,7 +20028,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18695,7 +20061,7 @@
         <v>2471722.300823097</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18728,7 +20094,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18761,7 +20127,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18794,7 +20160,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18827,7 +20193,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18860,7 +20226,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18893,7 +20259,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18926,7 +20292,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18959,7 +20325,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18992,7 +20358,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19025,7 +20391,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19058,7 +20424,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19091,7 +20457,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19124,7 +20490,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19157,7 +20523,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19190,7 +20556,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19223,7 +20589,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19256,7 +20622,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19289,7 +20655,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19322,7 +20688,7 @@
         <v>2745081.721823097</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19355,7 +20721,7 @@
         <v>2958418.002823097</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19388,7 +20754,7 @@
         <v>2958418.002823097</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19421,7 +20787,7 @@
         <v>2958418.002823097</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19454,7 +20820,7 @@
         <v>2958418.002823097</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19487,7 +20853,7 @@
         <v>2926413.977023097</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19520,7 +20886,7 @@
         <v>2932313.977023097</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19553,7 +20919,7 @@
         <v>2926143.977023097</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19586,7 +20952,7 @@
         <v>3085485.919123097</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19619,7 +20985,7 @@
         <v>3085485.919123097</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19652,7 +21018,7 @@
         <v>2800699.880423097</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19685,7 +21051,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19718,7 +21084,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19751,7 +21117,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19784,7 +21150,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19817,7 +21183,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19850,7 +21216,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19883,7 +21249,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19916,7 +21282,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19949,7 +21315,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19982,7 +21348,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20015,7 +21381,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20048,7 +21414,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20081,7 +21447,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20114,7 +21480,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20147,7 +21513,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20180,7 +21546,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20213,7 +21579,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20246,7 +21612,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20279,7 +21645,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -20312,7 +21678,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20345,7 +21711,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20378,7 +21744,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -20411,7 +21777,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20444,7 +21810,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20477,7 +21843,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -20510,7 +21876,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -20543,7 +21909,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20576,7 +21942,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20609,7 +21975,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20642,7 +22008,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20675,7 +22041,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20708,7 +22074,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20741,7 +22107,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20774,7 +22140,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20807,7 +22173,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20840,7 +22206,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20873,7 +22239,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20906,7 +22272,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20939,7 +22305,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20972,7 +22338,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21005,7 +22371,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21038,7 +22404,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21071,7 +22437,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21104,7 +22470,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21137,7 +22503,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21170,7 +22536,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21203,7 +22569,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -21236,7 +22602,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -21269,7 +22635,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21302,7 +22668,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21335,7 +22701,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -21368,7 +22734,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21401,7 +22767,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21434,7 +22800,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -21467,7 +22833,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21500,7 +22866,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21533,7 +22899,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21566,7 +22932,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21599,7 +22965,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21632,7 +22998,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21665,7 +23031,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21698,7 +23064,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21731,7 +23097,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21764,7 +23130,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21797,7 +23163,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21830,7 +23196,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21863,7 +23229,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21896,7 +23262,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21929,7 +23295,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21962,7 +23328,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21995,7 +23361,7 @@
         <v>2974461.318423097</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22028,7 +23394,7 @@
         <v>2974461.318423097</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22061,7 +23427,7 @@
         <v>3235528.955423098</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22094,7 +23460,7 @@
         <v>3235528.955423098</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22127,7 +23493,7 @@
         <v>2933146.547423098</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22160,7 +23526,7 @@
         <v>3244027.280423098</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22193,7 +23559,7 @@
         <v>3244027.280423098</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22226,7 +23592,7 @@
         <v>3113832.486423098</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22259,7 +23625,7 @@
         <v>3363879.180423098</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -22292,7 +23658,7 @@
         <v>3620661.866423097</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -22325,7 +23691,7 @@
         <v>3620661.866423097</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22358,7 +23724,7 @@
         <v>3506609.934423097</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -22391,7 +23757,7 @@
         <v>3925743.237423097</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -22424,7 +23790,7 @@
         <v>3807258.331423097</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22457,7 +23823,7 @@
         <v>4153839.417923097</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22490,7 +23856,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22523,7 +23889,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22556,7 +23922,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22589,7 +23955,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22622,7 +23988,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22655,7 +24021,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22688,7 +24054,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22721,7 +24087,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22853,7 +24219,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22886,7 +24252,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22919,7 +24285,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22952,7 +24318,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22985,7 +24351,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23018,7 +24384,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23051,7 +24417,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23084,7 +24450,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23117,7 +24483,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23150,7 +24516,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23183,7 +24549,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23216,7 +24582,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23249,7 +24615,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23480,7 +24846,7 @@
         <v>4214541.143700875</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -23513,7 +24879,7 @@
         <v>3854941.013700875</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -23546,7 +24912,7 @@
         <v>3954674.976700875</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23645,7 +25011,7 @@
         <v>3799035.639700876</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
